--- a/Project 1 - Overview.xlsx
+++ b/Project 1 - Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f13750c0123d7baf/Desktop/Data Bootcamp Class Folder/Group Project 1/Project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7210407-E6E9-480F-AACD-9F59E99E682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F7210407-E6E9-480F-AACD-9F59E99E682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B410432F-CB8A-4E67-903B-9E2B942ACA6B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{FD07D987-3D77-4FD8-BDD5-A7ADAD83F8FE}"/>
+    <workbookView xWindow="-21330" yWindow="7185" windowWidth="14400" windowHeight="7455" xr2:uid="{FD07D987-3D77-4FD8-BDD5-A7ADAD83F8FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -180,10 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF29491-5A67-44F0-B31E-C31B512C59D5}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,7 +644,7 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
@@ -664,10 +663,10 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" t="s">
@@ -678,10 +677,10 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -692,10 +691,10 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -703,7 +702,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -714,10 +713,10 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -725,7 +724,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -736,7 +735,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -774,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B81DE9-7E60-4504-9340-0734361167B5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
